--- a/biology/Médecine/Pierre_Charles_Mocquot/Pierre_Charles_Mocquot.xlsx
+++ b/biology/Médecine/Pierre_Charles_Mocquot/Pierre_Charles_Mocquot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pierre, Charles, Mocquot, né le 31 juillet 1879 à Appoigny (Yonne) et mort le 17 mai 1963 à Paris, est un chirurgien français. 
@@ -515,10 +527,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Mocquot descend d’une lignée de médecins et de chirurgiens, parmi ceux-ci : son arrière-grand-père,  Gabriel-Pèlerin Mocquot (1772-1835) chirurgien principal aux armées de Napoléon Ier[1], son grand-père maternel Charles Chavance (1825-1916), et son père Gabriel Mocquot (1849-1938).  
-Après avoir été un élève remarquable dans tous les domaines au lycée Jacques Amyot à Auxerre, il part à Paris pour ses études de médecine. Il est reçu au concours de l'Internat en 1903. Il obtient la  médaille d’or de l’Internat en 1908 pour son travail sur la réanimation du cœur[2]. En 1909, il soutient sa thèse sur l’état de la vésicule dans les obstructions des voies biliaires.  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Mocquot descend d’une lignée de médecins et de chirurgiens, parmi ceux-ci : son arrière-grand-père,  Gabriel-Pèlerin Mocquot (1772-1835) chirurgien principal aux armées de Napoléon Ier, son grand-père maternel Charles Chavance (1825-1916), et son père Gabriel Mocquot (1849-1938).  
+Après avoir été un élève remarquable dans tous les domaines au lycée Jacques Amyot à Auxerre, il part à Paris pour ses études de médecine. Il est reçu au concours de l'Internat en 1903. Il obtient la  médaille d’or de l’Internat en 1908 pour son travail sur la réanimation du cœur. En 1909, il soutient sa thèse sur l’état de la vésicule dans les obstructions des voies biliaires.  
 Chirurgien des hôpitaux en 1912, agrégé en 1913, il devient l’assistant d’Édouard Quénu à l’hôpital Cochin à Paris.  
 Pendant la première guerre mondiale, Pierre Mocquot est mobilisé le 3 août 1914, à la tête de l’ambulance du 4e corps d’armée jusqu’en juin 1915. En juin 1915, il est nommé médecin-major à l’ambulance chirurgicale automobile no 5, dont il devient médecin-chef de mai 1916 à décembre 1918.  
 Au retour de la guerre, il reprend ses fonctions d’assistant chez Édouard Quénu, puis devient le collaborateur de Pierre Delbet. En 1927, il est nommé chef de service à l’hôpital Bichat. Professeur en 1935, il accède à la chaire de clinique gynécologique à l’hôpital Broca à Paris en 1936. Il prend sa retraite en 1950. 
@@ -551,7 +565,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titres et travaux scientifiques du Dr Pierre Mocquot, Paris : G. Steinheil, 1913
 Exposé des titres et travaux scientifiques du docteur Pierre Mocquot, Paris : Masson, 1934
@@ -591,7 +607,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>À Appoigny (Yonne), une rue porte son nom.</t>
         </is>
